--- a/Mod_Korean/Lang/KR/Dialog/Drama/parttimer_jure.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/parttimer_jure.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fiama" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="fiama" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -74,94 +74,78 @@
 So, my friend… don’t let this chance slip through your fingers!</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">쥬아 교단에서는 지금 특별한 개종 캠페인을 하고 있어.
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいえ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、本当に改宗していいね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okie, just making sure. Do you really want to convert your religion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あざーっす！やっと今日のノルマが達成できたよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks! Phew, I just filled my daily quota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_Jure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ちっ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쥬아 교단에서는 지금 특별한 개종 캠페인을 하고 있어.
 지금 쥬아교로 개종하면 천벌을 받지 않아! 신앙 일수도 계승돼! 게다가, 어머나 세상에, 수량 한정 쥬아님의 다키마쿠라도 증정한다고!
-손님</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">… 설마 이런 기회를 놓치지는 않겠지?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes.</t>
+손님… 설마 이런 기회를 놓치지는 않겠지?</t>
   </si>
   <si>
     <t xml:space="preserve">네</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
     <t xml:space="preserve">아니요</t>
   </si>
   <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、本当に改宗していいね？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okie, just making sure. Do you really want to convert your religion?</t>
-  </si>
-  <si>
     <t xml:space="preserve">좋았어, 정말로 개종하는 거지?</t>
   </si>
   <si>
-    <t xml:space="preserve">yes2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あざーっす！やっと今日のノルマが達成できたよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks! Phew, I just filled my daily quota.</t>
-  </si>
-  <si>
     <t xml:space="preserve">감삼다! 드디어 오늘 할당량을 다 채웠어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convert_Jure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ちっ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shit!</t>
   </si>
   <si>
     <t xml:space="preserve">쳇!</t>
@@ -174,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -185,27 +169,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,7 +200,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -232,50 +209,46 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -289,13 +262,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -471,33 +444,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="44.76"/>
+    <col min="1" max="1" width="14.41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.99" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.09" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,29 +504,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="1" t="n">
-        <f aca="false">MAX(H4:H1048576)</f>
+    <row r="2" ht="12.8">
+      <c r="H2" s="1">
+        <f>MAX(H4:H1048576)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.8">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="1" t="n">
+    <row r="11" ht="95.5">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -563,178 +535,178 @@
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8">
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="12.8">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="22.35">
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
+    <row r="27" ht="12.8">
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8">
+      <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="1" t="s">
+    </row>
+    <row r="29" ht="12.8">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8">
+      <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1" t="s">
+    </row>
+    <row r="32" ht="12.8">
+      <c r="H32" s="1">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" ht="12.8">
+      <c r="B35" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
